--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV062-001 - Setup Emiten Investasi - General View Detil.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV062-001 - Setup Emiten Investasi - General View Detil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E528D1-2C8C-4548-A009-ACAB60D8A5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3B715C-2AE5-4BB6-BDD5-E10D1521A310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -67,90 +67,9 @@
     <t>PREPARATION</t>
   </si>
   <si>
-    <t>KODE_EMITEN</t>
-  </si>
-  <si>
-    <t>GROUP_EMITEN</t>
-  </si>
-  <si>
-    <t>JENIS_EMITEN</t>
-  </si>
-  <si>
     <t>NAMA_EMITEN</t>
   </si>
   <si>
-    <t>TICKER</t>
-  </si>
-  <si>
-    <t>KETERANGAN</t>
-  </si>
-  <si>
-    <t>SEKTOR</t>
-  </si>
-  <si>
-    <t>SUB_SEKTOR</t>
-  </si>
-  <si>
-    <t>KODE_BI</t>
-  </si>
-  <si>
-    <t>ALAMAT</t>
-  </si>
-  <si>
-    <t>KOTA</t>
-  </si>
-  <si>
-    <t>KODE_POS</t>
-  </si>
-  <si>
-    <t>NAMA_KONTRAK</t>
-  </si>
-  <si>
-    <t>NPWP</t>
-  </si>
-  <si>
-    <t>TELEPON</t>
-  </si>
-  <si>
-    <t>FAX</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>BCA GROUP</t>
-  </si>
-  <si>
-    <t>SWASTA</t>
-  </si>
-  <si>
-    <t>Tester</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>INV.SET.013</t>
-  </si>
-  <si>
-    <t>4 : Keuangan</t>
-  </si>
-  <si>
-    <t>Keuangan / Perbankan</t>
-  </si>
-  <si>
-    <t>014 : Bank BCA</t>
-  </si>
-  <si>
-    <t>Jalan Testing</t>
-  </si>
-  <si>
-    <t>Jakarta</t>
-  </si>
-  <si>
-    <t>test@gmail.com</t>
-  </si>
-  <si>
     <t>bni1234</t>
   </si>
   <si>
@@ -160,22 +79,22 @@
     <t>Analisis Investasi</t>
   </si>
   <si>
-    <t>0123456789</t>
-  </si>
-  <si>
     <t>DPLKINV062-001</t>
+  </si>
+  <si>
+    <t>View Setup Emiten</t>
+  </si>
+  <si>
+    <t>View dapat dilakukan dengan baik</t>
+  </si>
+  <si>
+    <t>Sucorinvest Adidaya, PT</t>
   </si>
   <si>
     <t>Username : 31246;
 Password : bni1234;
 Role : 20/21 - Analis Investasi/Asisten Investasi;
-Kode Emiten : E0055</t>
-  </si>
-  <si>
-    <t>View Setup Emiten</t>
-  </si>
-  <si>
-    <t>View dapat dilakukan dengan baik</t>
+Nama Emiten : Sucorinvest Adidaya, PT</t>
   </si>
 </sst>
 </file>
@@ -583,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,8 +520,7 @@
     <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7" style="1" bestFit="1" customWidth="1"/>
@@ -655,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
@@ -669,82 +587,34 @@
       <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="2" spans="1:33" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="G2" s="4">
         <v>31246</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>11</v>
@@ -755,55 +625,18 @@
       <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" s="1">
-        <v>99999</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>99999999</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="M2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="AA2" s="9"/>
+      <c r="AC2" s="8"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="9"/>
@@ -873,10 +706,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="AC2" r:id="rId1" xr:uid="{31C0F554-089B-49B3-A953-B5EC5F01C8A3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>